--- a/output/ValueSet-PractitionerRoleVS.xlsx
+++ b/output/ValueSet-PractitionerRoleVS.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-24T13:08:13-05:00</t>
+    <t>2021-11-29T12:19:39-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-PractitionerRoleVS.xlsx
+++ b/output/ValueSet-PractitionerRoleVS.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-29T12:19:39-05:00</t>
+    <t>2021-11-29T15:16:50-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-PractitionerRoleVS.xlsx
+++ b/output/ValueSet-PractitionerRoleVS.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-29T15:16:50-05:00</t>
+    <t>2021-12-02T09:56:35-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-PractitionerRoleVS.xlsx
+++ b/output/ValueSet-PractitionerRoleVS.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-02T09:56:35-05:00</t>
+    <t>2021-12-02T10:29:42-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-PractitionerRoleVS.xlsx
+++ b/output/ValueSet-PractitionerRoleVS.xlsx
@@ -25,7 +25,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-healthcare-directory/ValueSet/PractitionerRoleVS</t>
+    <t>http://hl7.org/fhir/us/national-directory/ValueSet/PractitionerRoleVS</t>
   </si>
   <si>
     <t>Version</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-02T10:29:42-05:00</t>
+    <t>2021-12-09T08:58:20-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -109,7 +109,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-healthcare-directory/CodeSystem/ProviderRoleCS</t>
+    <t>http://hl7.org/fhir/us/national-directory/CodeSystem/ProviderRoleCS</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/CodeSystem/practitioner-role</t>

--- a/output/ValueSet-PractitionerRoleVS.xlsx
+++ b/output/ValueSet-PractitionerRoleVS.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-09T08:58:20-05:00</t>
+    <t>2021-12-16T09:47:40-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-PractitionerRoleVS.xlsx
+++ b/output/ValueSet-PractitionerRoleVS.xlsx
@@ -25,7 +25,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-directory/ValueSet/PractitionerRoleVS</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-excahnge/ValueSet/PractitionerRoleVS</t>
   </si>
   <si>
     <t>Version</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T09:47:40-05:00</t>
+    <t>2021-12-17T09:57:57-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -109,7 +109,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-directory/CodeSystem/ProviderRoleCS</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-excahnge/CodeSystem/ProviderRoleCS</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/CodeSystem/practitioner-role</t>

--- a/output/ValueSet-PractitionerRoleVS.xlsx
+++ b/output/ValueSet-PractitionerRoleVS.xlsx
@@ -25,7 +25,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-excahnge/ValueSet/PractitionerRoleVS</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-exchange/ValueSet/PractitionerRoleVS</t>
   </si>
   <si>
     <t>Version</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-17T09:57:57-05:00</t>
+    <t>2021-12-17T10:34:48-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -109,7 +109,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-excahnge/CodeSystem/ProviderRoleCS</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-exchange/CodeSystem/ProviderRoleCS</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/CodeSystem/practitioner-role</t>
